--- a/Colecciones/Judge Gift Cards 2008 (G08).xlsx
+++ b/Colecciones/Judge Gift Cards 2008 (G08).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,44 +437,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Judge</t>
+          <t>Judge Gift Cards 2008 (G08)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Demonic Tutor</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Goblin Piledriver</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Living Wish</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mind's Desire</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Orim's Chant</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
